--- a/CB/cb-invest-weekly-record/20200531/cb-invest-weekly-record-20200531.xlsx
+++ b/CB/cb-invest-weekly-record/20200531/cb-invest-weekly-record-20200531.xlsx
@@ -285,11 +285,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -309,29 +309,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -346,9 +323,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,6 +376,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -382,63 +437,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,30 +467,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor theme="0" tint="-0.149998474074526"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -503,6 +521,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -515,133 +593,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,44 +697,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,17 +747,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,10 +787,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,168 +799,177 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,14 +1293,23 @@
   <sheetPr/>
   <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AS20" sqref="AS20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="6.375" customWidth="1"/>
+    <col min="13" max="13" width="7.375" customWidth="1"/>
+    <col min="18" max="18" width="5.375" customWidth="1"/>
+    <col min="40" max="41" width="5.375" customWidth="1"/>
+    <col min="43" max="43" width="7.375" customWidth="1"/>
+    <col min="44" max="44" width="9.375" customWidth="1"/>
+    <col min="47" max="47" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
@@ -1415,7 +1439,7 @@
       <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AR1" s="2" t="s">
@@ -1462,22 +1486,22 @@
       <c r="I2" s="4">
         <v>112.811</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="10">
         <v>0.0298</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>0.001</v>
       </c>
       <c r="L2" s="4">
         <v>15.4</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="10">
         <v>0.0548</v>
       </c>
       <c r="N2" s="4">
         <v>386</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="11">
         <v>1.09</v>
       </c>
       <c r="P2" s="4">
@@ -1492,7 +1516,7 @@
       <c r="S2" s="4">
         <v>103.15</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="10">
         <v>0.094</v>
       </c>
       <c r="U2" s="4" t="s">
@@ -1504,10 +1528,10 @@
       <c r="W2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="10">
         <v>0.172</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="10">
         <v>0.177</v>
       </c>
       <c r="Z2" s="4">
@@ -1516,16 +1540,16 @@
       <c r="AA2" s="4">
         <v>19</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="10">
         <v>0.0206</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC2" s="10">
         <v>0.0117</v>
       </c>
-      <c r="AD2" s="7">
+      <c r="AD2" s="10">
         <v>-0.0306</v>
       </c>
-      <c r="AE2" s="7">
+      <c r="AE2" s="10">
         <v>-0.0332</v>
       </c>
       <c r="AF2" s="4">
@@ -1540,16 +1564,16 @@
       <c r="AI2" s="4">
         <v>122.71</v>
       </c>
-      <c r="AJ2" s="7">
+      <c r="AJ2" s="10">
         <v>-0.081</v>
       </c>
-      <c r="AK2" s="8">
+      <c r="AK2" s="11">
         <v>0.58</v>
       </c>
-      <c r="AL2" s="8">
+      <c r="AL2" s="11">
         <v>0.08</v>
       </c>
-      <c r="AM2" s="8">
+      <c r="AM2" s="11">
         <v>0.18</v>
       </c>
       <c r="AN2" s="4">
@@ -1558,10 +1582,10 @@
       <c r="AO2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AP2" s="7">
+      <c r="AP2" s="10">
         <v>0.0506</v>
       </c>
-      <c r="AQ2" s="10">
+      <c r="AQ2" s="4">
         <v>122.21</v>
       </c>
       <c r="AR2" s="4">
@@ -1570,7 +1594,7 @@
       <c r="AS2" s="4">
         <v>23.2</v>
       </c>
-      <c r="AT2" s="7">
+      <c r="AT2" s="10">
         <v>0.163</v>
       </c>
       <c r="AU2" s="4">
@@ -1581,148 +1605,148 @@
       </c>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>176</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>128049</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>43454</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>2787</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="7">
         <v>106.5</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="12">
         <v>0.0008</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="12">
         <v>-0.003</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="7">
         <v>6.78</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="12">
         <v>-0.0044</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="7">
         <v>1.4</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="12">
         <v>0.003</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="7">
         <v>115.2</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="7">
         <v>7.52</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="7">
         <v>1.46</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="7">
         <v>90.16</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="12">
         <v>0.181</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="12">
         <v>0.19</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="12">
         <v>0.171</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="7">
         <v>4</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="7">
         <v>21</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="12">
         <v>0.018</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="12">
         <v>0.0118</v>
       </c>
-      <c r="AD3" s="7">
+      <c r="AD3" s="12">
         <v>-0.0107</v>
       </c>
-      <c r="AE3" s="7">
+      <c r="AE3" s="12">
         <v>-0.0132</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="7">
         <v>90.91</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AG3" s="7">
         <v>92.72</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AH3" s="7">
         <v>17.82</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AI3" s="7">
         <v>110.54</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AJ3" s="12">
         <v>-0.037</v>
       </c>
-      <c r="AK3" s="8">
+      <c r="AK3" s="13">
         <v>0.64</v>
       </c>
-      <c r="AL3" s="8">
+      <c r="AL3" s="13">
         <v>0.14</v>
       </c>
-      <c r="AM3" s="8">
+      <c r="AM3" s="13">
         <v>0.18</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AN3" s="7">
         <v>0.49</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AP3" s="7">
+      <c r="AP3" s="12">
         <v>0.0506</v>
       </c>
-      <c r="AQ3" s="10">
+      <c r="AQ3" s="7">
         <v>124.6</v>
       </c>
-      <c r="AR3" s="4">
+      <c r="AR3" s="7">
         <v>122.8</v>
       </c>
-      <c r="AS3" s="4">
+      <c r="AS3" s="7">
         <v>30.1</v>
       </c>
-      <c r="AT3" s="7">
+      <c r="AT3" s="12">
         <v>-0.019</v>
       </c>
-      <c r="AU3" s="4">
+      <c r="AU3" s="7">
         <v>60</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AV3" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1754,22 +1778,22 @@
       <c r="I4" s="4">
         <v>109.8</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="10">
         <v>0.0131</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <v>-0.0039</v>
       </c>
       <c r="L4" s="4">
         <v>8.26</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="10">
         <v>0.0172</v>
       </c>
       <c r="N4" s="4">
         <v>6.1</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="10">
         <v>0.01</v>
       </c>
       <c r="P4" s="4">
@@ -1784,7 +1808,7 @@
       <c r="S4" s="4">
         <v>93.76</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="10">
         <v>0.171</v>
       </c>
       <c r="U4" s="4" t="s">
@@ -1796,10 +1820,10 @@
       <c r="W4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="10">
         <v>0.123</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="10">
         <v>0.115</v>
       </c>
       <c r="Z4" s="4">
@@ -1808,16 +1832,16 @@
       <c r="AA4" s="4">
         <v>44</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="10">
         <v>0.0139</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="10">
         <v>0.0074</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="10">
         <v>-0.0198</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AE4" s="10">
         <v>-0.0221</v>
       </c>
       <c r="AF4" s="4">
@@ -1832,16 +1856,16 @@
       <c r="AI4" s="4">
         <v>111.99</v>
       </c>
-      <c r="AJ4" s="7">
+      <c r="AJ4" s="10">
         <v>-0.02</v>
       </c>
-      <c r="AK4" s="8">
+      <c r="AK4" s="11">
         <v>0.76</v>
       </c>
-      <c r="AL4" s="8">
+      <c r="AL4" s="11">
         <v>0.14</v>
       </c>
-      <c r="AM4" s="8">
+      <c r="AM4" s="11">
         <v>0.16</v>
       </c>
       <c r="AN4" s="4">
@@ -1850,10 +1874,10 @@
       <c r="AO4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AP4" s="7">
+      <c r="AP4" s="10">
         <v>0.0506</v>
       </c>
-      <c r="AQ4" s="10">
+      <c r="AQ4" s="4">
         <v>126.9</v>
       </c>
       <c r="AR4" s="4">
@@ -1862,7 +1886,7 @@
       <c r="AS4" s="4">
         <v>32.8</v>
       </c>
-      <c r="AT4" s="7">
+      <c r="AT4" s="10">
         <v>-0.031</v>
       </c>
       <c r="AU4" s="4">
@@ -1873,148 +1897,148 @@
       </c>
     </row>
     <row r="5" spans="1:48">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>247</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>127003</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>42552</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>861</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="7">
         <v>110.603</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="12">
         <v>-0.0045</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="12">
         <v>-0.0026</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="7">
         <v>3.01</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="12">
         <v>-0.0163</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="7">
         <v>8.7</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="12">
         <v>0.008</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="7">
         <v>113.3</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="7">
         <v>3.01</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="7">
         <v>1.91</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="7">
         <v>100</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="12">
         <v>0.106</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="12">
         <v>0.14</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="12">
         <v>0.14</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="7">
         <v>9.4</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="7">
         <v>67</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="12">
         <v>0.0122</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="12">
         <v>0.0002</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="12">
         <v>-0.459</v>
       </c>
-      <c r="AE5" s="7">
+      <c r="AE5" s="12">
         <v>-0.476</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF5" s="7">
         <v>101.1</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AG5" s="7">
         <v>105.43</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AH5" s="7">
         <v>9.09</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AI5" s="7">
         <v>114.53</v>
       </c>
-      <c r="AJ5" s="7">
+      <c r="AJ5" s="12">
         <v>-0.034</v>
       </c>
-      <c r="AK5" s="8">
+      <c r="AK5" s="13">
         <v>0.31</v>
       </c>
-      <c r="AL5" s="8">
+      <c r="AL5" s="13">
         <v>0.1</v>
       </c>
-      <c r="AM5" s="8">
+      <c r="AM5" s="13">
         <v>0.16</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AN5" s="7">
         <v>0.43</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AO5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AP5" s="7">
+      <c r="AP5" s="12">
         <v>0.037</v>
       </c>
-      <c r="AQ5" s="10">
+      <c r="AQ5" s="7">
         <v>121.2</v>
       </c>
-      <c r="AR5" s="4">
+      <c r="AR5" s="7">
         <v>121.2</v>
       </c>
-      <c r="AS5" s="4">
+      <c r="AS5" s="7">
         <v>15.8</v>
       </c>
-      <c r="AT5" s="7">
+      <c r="AT5" s="12">
         <v>0.025</v>
       </c>
-      <c r="AU5" s="4">
+      <c r="AU5" s="7">
         <v>86</v>
       </c>
-      <c r="AV5" s="4" t="s">
+      <c r="AV5" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2046,22 +2070,22 @@
       <c r="I6" s="4">
         <v>112.3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="10">
         <v>0.0307</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="10">
         <v>0.0079</v>
       </c>
       <c r="L6" s="4">
         <v>7.8</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="10">
         <v>0.0803</v>
       </c>
       <c r="N6" s="4">
         <v>162</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="10">
         <v>0.094</v>
       </c>
       <c r="P6" s="4">
@@ -2076,7 +2100,7 @@
       <c r="S6" s="4">
         <v>97.01</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="10">
         <v>0.158</v>
       </c>
       <c r="U6" s="4" t="s">
@@ -2088,10 +2112,10 @@
       <c r="W6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="10">
         <v>0.186</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="10">
         <v>0.181</v>
       </c>
       <c r="Z6" s="4">
@@ -2100,16 +2124,16 @@
       <c r="AA6" s="4">
         <v>82</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="10">
         <v>0.0116</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="10">
         <v>0.0047</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="10">
         <v>-0.0267</v>
       </c>
-      <c r="AE6" s="7">
+      <c r="AE6" s="10">
         <v>-0.0291</v>
       </c>
       <c r="AF6" s="4">
@@ -2124,16 +2148,16 @@
       <c r="AI6" s="4">
         <v>116.44</v>
       </c>
-      <c r="AJ6" s="7">
+      <c r="AJ6" s="10">
         <v>-0.036</v>
       </c>
-      <c r="AK6" s="8">
+      <c r="AK6" s="11">
         <v>0.44</v>
       </c>
-      <c r="AL6" s="8">
+      <c r="AL6" s="11">
         <v>0.13</v>
       </c>
-      <c r="AM6" s="8">
+      <c r="AM6" s="11">
         <v>0.16</v>
       </c>
       <c r="AN6" s="4">
@@ -2142,10 +2166,10 @@
       <c r="AO6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AP6" s="7">
+      <c r="AP6" s="10">
         <v>0.0356</v>
       </c>
-      <c r="AQ6" s="10">
+      <c r="AQ6" s="4">
         <v>128.1</v>
       </c>
       <c r="AR6" s="4">
@@ -2154,7 +2178,7 @@
       <c r="AS6" s="4">
         <v>26.9</v>
       </c>
-      <c r="AT6" s="7">
+      <c r="AT6" s="10">
         <v>0.093</v>
       </c>
       <c r="AU6" s="4">
@@ -2165,148 +2189,148 @@
       </c>
     </row>
     <row r="7" spans="1:48">
-      <c r="A7" s="4">
+      <c r="A7" s="7">
         <v>117</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>128071</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>43724</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="9">
         <v>2228</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="7">
         <v>109.32</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="12">
         <v>0.0085</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="12">
         <v>-0.0006</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="7">
         <v>4.02</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="12">
         <v>0.0152</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="7">
         <v>4.3</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="12">
         <v>0.007</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="7">
         <v>115.1</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="7">
         <v>4.38</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="7">
         <v>1.57</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="7">
         <v>91.78</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="12">
         <v>0.191</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="12">
         <v>0.127</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="12">
         <v>0.116</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="7">
         <v>6</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="7">
         <v>47</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="12">
         <v>0.0101</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="12">
         <v>0.0049</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="12">
         <v>-0.0159</v>
       </c>
-      <c r="AE7" s="7">
+      <c r="AE7" s="12">
         <v>-0.0179</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AF7" s="7">
         <v>89.5</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AG7" s="7">
         <v>92.04</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AH7" s="7">
         <v>19.34</v>
       </c>
-      <c r="AI7" s="4">
+      <c r="AI7" s="7">
         <v>111.38</v>
       </c>
-      <c r="AJ7" s="7">
+      <c r="AJ7" s="12">
         <v>-0.018</v>
       </c>
-      <c r="AK7" s="8">
+      <c r="AK7" s="13">
         <v>0.37</v>
       </c>
-      <c r="AL7" s="8">
+      <c r="AL7" s="13">
         <v>0.17</v>
       </c>
-      <c r="AM7" s="8">
+      <c r="AM7" s="13">
         <v>0.18</v>
       </c>
-      <c r="AN7" s="4">
+      <c r="AN7" s="7">
         <v>0.52</v>
       </c>
-      <c r="AO7" s="4" t="s">
+      <c r="AO7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AP7" s="7">
+      <c r="AP7" s="12">
         <v>0.0447</v>
       </c>
-      <c r="AQ7" s="10">
+      <c r="AQ7" s="7">
         <v>128.42</v>
       </c>
-      <c r="AR7" s="4">
+      <c r="AR7" s="7">
         <v>126.9</v>
       </c>
-      <c r="AS7" s="4">
+      <c r="AS7" s="7">
         <v>34.8</v>
       </c>
-      <c r="AT7" s="7">
+      <c r="AT7" s="12">
         <v>0.099</v>
       </c>
-      <c r="AU7" s="4">
+      <c r="AU7" s="7">
         <v>29</v>
       </c>
-      <c r="AV7" s="4" t="s">
+      <c r="AV7" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2338,22 +2362,22 @@
       <c r="I8" s="4">
         <v>106.881</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="10">
         <v>0.0074</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="10">
         <v>-0.0036</v>
       </c>
       <c r="L8" s="4">
         <v>13.58</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="10">
         <v>0.0074</v>
       </c>
       <c r="N8" s="4">
         <v>5.9</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="10">
         <v>0.018</v>
       </c>
       <c r="P8" s="4">
@@ -2368,7 +2392,7 @@
       <c r="S8" s="4">
         <v>92.38</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="10">
         <v>0.157</v>
       </c>
       <c r="U8" s="4" t="s">
@@ -2380,10 +2404,10 @@
       <c r="W8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="10">
         <v>0.108</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="10">
         <v>0.1</v>
       </c>
       <c r="Z8" s="4">
@@ -2392,16 +2416,16 @@
       <c r="AA8" s="4">
         <v>28</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="10">
         <v>0.0078</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="10">
         <v>0.0026</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="10">
         <v>-0.0244</v>
       </c>
-      <c r="AE8" s="7">
+      <c r="AE8" s="10">
         <v>-0.0273</v>
       </c>
       <c r="AF8" s="4">
@@ -2416,16 +2440,16 @@
       <c r="AI8" s="4">
         <v>108.3</v>
       </c>
-      <c r="AJ8" s="7">
+      <c r="AJ8" s="10">
         <v>-0.013</v>
       </c>
-      <c r="AK8" s="8">
+      <c r="AK8" s="11">
         <v>0.31</v>
       </c>
-      <c r="AL8" s="8">
+      <c r="AL8" s="11">
         <v>0.16</v>
       </c>
-      <c r="AM8" s="8">
+      <c r="AM8" s="11">
         <v>0.17</v>
       </c>
       <c r="AN8" s="4">
@@ -2434,10 +2458,10 @@
       <c r="AO8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AP8" s="7">
+      <c r="AP8" s="10">
         <v>0.0506</v>
       </c>
-      <c r="AQ8" s="10">
+      <c r="AQ8" s="4">
         <v>122.58</v>
       </c>
       <c r="AR8" s="4">
@@ -2446,7 +2470,7 @@
       <c r="AS8" s="4">
         <v>27</v>
       </c>
-      <c r="AT8" s="7">
+      <c r="AT8" s="10">
         <v>-0.012</v>
       </c>
       <c r="AU8" s="4">
